--- a/TestData/myDocument.xlsx
+++ b/TestData/myDocument.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="name1" comment="name1 description" localSheetId="0">Sheet1!$B$9</definedName>
+    <definedName name="name1" localSheetId="0" comment="name1 description">Sheet1!$B$9</definedName>
     <definedName name="name2" comment="name2 description">Sheet1!$E$11:$F$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
@@ -31,7 +31,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -47,7 +46,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -64,32 +62,35 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -99,16 +100,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -116,7 +117,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -125,6 +125,18 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -145,23 +157,117 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,8 +279,13 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
@@ -189,7 +300,7 @@
     </c:floor>
     <c:sideWall>
       <c:spPr>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:srgbClr val="4F81BD">
@@ -210,13 +321,13 @@
               </a:srgbClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000"/>
         </a:gradFill>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
       <c:spPr>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:srgbClr val="4F81BD">
@@ -237,7 +348,7 @@
               </a:srgbClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000"/>
         </a:gradFill>
       </c:spPr>
     </c:backWall>
@@ -246,6 +357,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -258,7 +370,7 @@
                 <a:lumMod val="75000"/>
               </a:srgbClr>
             </a:solidFill>
-            <a:ln w="19050">
+            <a:ln w="19050" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
@@ -266,6 +378,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet3!$A$1:$C$1</c:f>
@@ -284,6 +397,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="box"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -298,6 +412,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet3!$A$2:$C$2</c:f>
@@ -316,35 +431,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:shape val="box"/>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="111897216"/>
-        <c:axId val="111907200"/>
-        <c:axId val="0"/>
+        <c:axId val="25956048"/>
+        <c:axId val="63886807"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="111897216"/>
+        <c:axId val="25956048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111907200"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng"/>
+        </c:spPr>
+        <c:crossAx val="63886807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111907200"/>
+        <c:axId val="63886807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111897216"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng"/>
+        </c:spPr>
+        <c:crossAx val="25956048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -354,29 +482,25 @@
               <c:manualLayout>
                 <c:xMode val="edge"/>
                 <c:yMode val="edge"/>
-                <c:x val="3.456036745406825E-2"/>
-                <c:y val="0.34314997083697879"/>
+                <c:x val="0.0345"/>
+                <c:y val="0.34325"/>
               </c:manualLayout>
             </c:layout>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" i="1" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFC000"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" altLang="en-US"/>
-                    <a:t>10000</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr vert="horz" rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" b="1" u="none" baseline="0"/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
           </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
@@ -386,34 +510,38 @@
       <c:legendEntry>
         <c:idx val="0"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr vert="horz" rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr baseline="0">
+              <a:defRPr lang="en-US" sz="1000" u="none" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="1"/>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr vert="horz" rot="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr baseline="0">
+              <a:defRPr lang="en-US" sz="1000" u="none" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:legendEntry>
@@ -421,17 +549,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8665153105861777"/>
-          <c:y val="0.44406058617672789"/>
-          <c:w val="0.11681802274715661"/>
-          <c:h val="0.16743438320210008"/>
+          <c:x val="0.8665"/>
+          <c:y val="0.444"/>
+          <c:w val="0.11675"/>
+          <c:h val="0.1675"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
@@ -440,50 +569,67 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9002187226596965E-2"/>
-          <c:y val="6.0659813356663754E-2"/>
-          <c:w val="0.72080336832895886"/>
-          <c:h val="0.8326195683872849"/>
+          <c:x val="0.079"/>
+          <c:y val="0.06075"/>
+          <c:w val="0.72075"/>
+          <c:h val="0.8325"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:trendline>
+            <c:spPr>
+              <a:ln w="9525"/>
+            </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
+            <c:spPr>
+              <a:ln w="9525"/>
+            </c:spPr>
             <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:val val="1"/>
+            <c:noEndCap val="0"/>
           </c:errBars>
           <c:val>
             <c:numRef>
@@ -503,12 +649,18 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:trendline>
+            <c:spPr>
+              <a:ln w="9525"/>
+            </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:val>
             <c:numRef>
@@ -528,40 +680,52 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:upDownBars>
-          <c:gapWidth val="150"/>
           <c:upBars/>
           <c:downBars/>
         </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="111755648"/>
-        <c:axId val="111757184"/>
+        <c:axId val="43445831"/>
+        <c:axId val="48470980"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111755648"/>
+        <c:axId val="43445831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111757184"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng"/>
+        </c:spPr>
+        <c:crossAx val="48470980"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111757184"/>
+        <c:axId val="48470980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111755648"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng"/>
+        </c:spPr>
+        <c:crossAx val="43445831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -569,25 +733,26 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -612,6 +777,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -637,34 +803,48 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="111773568"/>
-        <c:axId val="111775104"/>
+        <c:axId val="26267826"/>
+        <c:axId val="12055093"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111773568"/>
+        <c:axId val="26267826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111775104"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng"/>
+        </c:spPr>
+        <c:crossAx val="12055093"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111775104"/>
+        <c:axId val="12055093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111773568"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng"/>
+        </c:spPr>
+        <c:crossAx val="26267826"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -672,27 +852,17 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" max="30000" page="10" val="0"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -714,10 +884,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -727,12 +897,10 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2905125" y="400051"/>
-          <a:ext cx="2133599" cy="1600199"/>
+          <a:off x="2905125" y="400050"/>
+          <a:ext cx="2133600" cy="1600200"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -758,10 +926,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -771,12 +939,10 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857501" y="2495549"/>
-          <a:ext cx="2108201" cy="1581151"/>
+          <a:off x="2857500" y="2495550"/>
+          <a:ext cx="2105025" cy="1581150"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -794,10 +960,10 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick r:id="rId3"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -806,9 +972,7 @@
           <a:off x="6543675" y="952500"/>
           <a:ext cx="1581150" cy="714375"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -823,19 +987,19 @@
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr altLang="zh-CN" lang="en-US" sz="1100"/>
             <a:t>sfsdfsdf</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr altLang="en-US" lang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -854,7 +1018,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>94107</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp macro="" fLocksText="0">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="左箭头 4"/>
         <xdr:cNvSpPr/>
@@ -862,11 +1026,9 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6772275" y="2352675"/>
-          <a:ext cx="978408" cy="484632"/>
+          <a:ext cx="981075" cy="485775"/>
         </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="leftArrow"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -881,29 +1043,113 @@
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr altLang="zh-CN" lang="en-US" sz="1100"/>
             <a:t>sfsdf</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr altLang="en-US" lang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5486400" y="3086100"/>
+              <a:ext cx="1076325" cy="1076325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:ln w="9525"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5486400" y="4457700"/>
+              <a:ext cx="914400" cy="685800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:ln w="9525"/>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -923,12 +1169,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1514475" y="857250"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -953,12 +1199,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6810375" y="971550"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -983,12 +1229,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3848100" y="4219575"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1281,36 +1527,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1" ht="13.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="2:2" ht="13.5">
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="2:2" ht="13.5">
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="2:2" ht="13.5">
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="2:5" ht="13.5">
       <c r="B6">
         <f>SUM(B3:B5)</f>
         <v>9</v>
@@ -1320,11 +1566,11 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="4:5" ht="13.5">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="4:6" ht="13.5">
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1336,68 +1582,114 @@
   <mergeCells count="1">
     <mergeCell ref="D6:E7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"1,2,3"</formula1>
+    <dataValidation errorStyle="warning" type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Warning Title" sqref="B8">
+      <formula1>"System.Object[]"</formula1>
     </dataValidation>
-    <dataValidation type="whole" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="sadsad" error="asdasd" promptTitle="asd" prompt="sadsad" sqref="F11">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="asd" prompt="sadsad" errorTitle="sadsad" error="asdasd" imeMode="on" sqref="F11">
       <formula1>1</formula1>
       <formula2>2</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId1" display="sina"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup horizontalDpi="1200" verticalDpi="1200" orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0" topLeftCell="A25">
+      <selection pane="topLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" ht="13.5">
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" ht="13.5">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId8"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId7"/>
   <oleObjects>
-    <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId4"/>
-    <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="FoxitReader.FDFDoc" shapeId="1027" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="工作表" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A4">
+      <selection pane="topLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1408,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="13.5">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1420,23 +1712,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13.5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1448,7 +1740,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>